--- a/biology/Zoologie/Corytophanes_cristatus/Corytophanes_cristatus.xlsx
+++ b/biology/Zoologie/Corytophanes_cristatus/Corytophanes_cristatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corytophanes cristatus est une espèce de sauriens de la famille des Corytophanidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corytophanes cristatus est une espèce de sauriens de la famille des Corytophanidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Colombie, au Panama, au Costa Rica, au Nicaragua, au Honduras, au Guatemala, au Belize et au Mexique au Chiapas, au Yucatán, au Campeche et au Veracruz[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Colombie, au Panama, au Costa Rica, au Nicaragua, au Honduras, au Guatemala, au Belize et au Mexique au Chiapas, au Yucatán, au Campeche et au Veracruz.
 Sa présence au Salvador est incertaine.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Merrem, 1820 : Versuch eines Systems der Amphibien I (Tentamen Systematis Amphibiorum). J. C. Krieger, Marburg, p. 1-191 (texte intégral).</t>
         </is>
